--- a/state_results/Rivers/MangatainokaatdsDBBreweries_c491557ea1.xlsx
+++ b/state_results/Rivers/MangatainokaatdsDBBreweries_c491557ea1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U160"/>
+  <dimension ref="A1:U128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1389,10 +1389,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.978</v>
+        <v>0.97775</v>
       </c>
       <c r="G12" t="n">
-        <v>0.972</v>
+        <v>0.971989130434783</v>
       </c>
       <c r="H12" t="n">
         <v>1.698</v>
@@ -1466,10 +1466,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.978</v>
+        <v>0.97775</v>
       </c>
       <c r="G13" t="n">
-        <v>0.972</v>
+        <v>0.971989130434783</v>
       </c>
       <c r="H13" t="n">
         <v>1.698</v>
@@ -2758,13 +2758,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.918</v>
+        <v>0.9182</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9361764705882351</v>
+        <v>0.936174509803922</v>
       </c>
       <c r="H29" t="n">
-        <v>1.925</v>
+        <v>1.9251</v>
       </c>
       <c r="I29" t="n">
         <v>1.5934</v>
@@ -2835,13 +2835,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.918</v>
+        <v>0.9182</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9361764705882351</v>
+        <v>0.936174509803922</v>
       </c>
       <c r="H30" t="n">
-        <v>1.925</v>
+        <v>1.9251</v>
       </c>
       <c r="I30" t="n">
         <v>1.5934</v>
@@ -4130,13 +4130,13 @@
         <v>0.883</v>
       </c>
       <c r="G46" t="n">
-        <v>0.897037735849057</v>
+        <v>0.8970283018867929</v>
       </c>
       <c r="H46" t="n">
-        <v>1.925</v>
+        <v>1.9251</v>
       </c>
       <c r="I46" t="n">
-        <v>1.58795</v>
+        <v>1.58787</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>1.34015</v>
       </c>
       <c r="N46" t="n">
-        <v>1.5125</v>
+        <v>1.51237</v>
       </c>
       <c r="O46" t="n">
         <v>1843495.64</v>
@@ -4207,13 +4207,13 @@
         <v>0.883</v>
       </c>
       <c r="G47" t="n">
-        <v>0.897037735849057</v>
+        <v>0.8970283018867929</v>
       </c>
       <c r="H47" t="n">
-        <v>1.925</v>
+        <v>1.9251</v>
       </c>
       <c r="I47" t="n">
-        <v>1.58795</v>
+        <v>1.58787</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -4224,7 +4224,7 @@
         <v>1.34015</v>
       </c>
       <c r="N47" t="n">
-        <v>1.5125</v>
+        <v>1.51237</v>
       </c>
       <c r="O47" t="n">
         <v>1843495.64</v>
@@ -5499,13 +5499,13 @@
         <v>0.891</v>
       </c>
       <c r="G63" t="n">
-        <v>0.918067796610169</v>
+        <v>0.918066101694915</v>
       </c>
       <c r="H63" t="n">
-        <v>1.925</v>
+        <v>1.9251</v>
       </c>
       <c r="I63" t="n">
-        <v>1.62385</v>
+        <v>1.62402</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -5516,7 +5516,7 @@
         <v>1.358</v>
       </c>
       <c r="N63" t="n">
-        <v>1.5255</v>
+        <v>1.52511</v>
       </c>
       <c r="O63" t="n">
         <v>1843495.64</v>
@@ -5576,13 +5576,13 @@
         <v>0.891</v>
       </c>
       <c r="G64" t="n">
-        <v>0.918067796610169</v>
+        <v>0.918066101694915</v>
       </c>
       <c r="H64" t="n">
-        <v>1.925</v>
+        <v>1.9251</v>
       </c>
       <c r="I64" t="n">
-        <v>1.62385</v>
+        <v>1.62402</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -5593,7 +5593,7 @@
         <v>1.358</v>
       </c>
       <c r="N64" t="n">
-        <v>1.5255</v>
+        <v>1.52511</v>
       </c>
       <c r="O64" t="n">
         <v>1843495.64</v>
@@ -6942,16 +6942,16 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.8915</v>
+        <v>0.89135</v>
       </c>
       <c r="G81" t="n">
-        <v>0.92805</v>
+        <v>0.928048333333333</v>
       </c>
       <c r="H81" t="n">
-        <v>1.925</v>
+        <v>1.9251</v>
       </c>
       <c r="I81" t="n">
-        <v>1.6715</v>
+        <v>1.67165</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -6959,10 +6959,10 @@
         <v>0.606</v>
       </c>
       <c r="M81" t="n">
-        <v>1.3713</v>
+        <v>1.37129</v>
       </c>
       <c r="N81" t="n">
-        <v>1.5235</v>
+        <v>1.52315</v>
       </c>
       <c r="O81" t="n">
         <v>1843495.64</v>
@@ -7019,16 +7019,16 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.8915</v>
+        <v>0.89135</v>
       </c>
       <c r="G82" t="n">
-        <v>0.92805</v>
+        <v>0.928048333333333</v>
       </c>
       <c r="H82" t="n">
-        <v>1.925</v>
+        <v>1.9251</v>
       </c>
       <c r="I82" t="n">
-        <v>1.6715</v>
+        <v>1.67165</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -7036,10 +7036,10 @@
         <v>0.606</v>
       </c>
       <c r="M82" t="n">
-        <v>1.3713</v>
+        <v>1.37129</v>
       </c>
       <c r="N82" t="n">
-        <v>1.5235</v>
+        <v>1.52315</v>
       </c>
       <c r="O82" t="n">
         <v>1843495.64</v>
@@ -8388,16 +8388,16 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.895</v>
+        <v>0.89495</v>
       </c>
       <c r="G99" t="n">
-        <v>0.897083333333333</v>
+        <v>0.897081666666667</v>
       </c>
       <c r="H99" t="n">
-        <v>1.925</v>
+        <v>1.9251</v>
       </c>
       <c r="I99" t="n">
-        <v>1.625</v>
+        <v>1.62515</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -8405,10 +8405,10 @@
         <v>0.52</v>
       </c>
       <c r="M99" t="n">
-        <v>1.3713</v>
+        <v>1.37129</v>
       </c>
       <c r="N99" t="n">
-        <v>1.5232</v>
+        <v>1.52285</v>
       </c>
       <c r="O99" t="n">
         <v>1843495.64</v>
@@ -8465,16 +8465,16 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.895</v>
+        <v>0.89495</v>
       </c>
       <c r="G100" t="n">
-        <v>0.897083333333333</v>
+        <v>0.897081666666667</v>
       </c>
       <c r="H100" t="n">
-        <v>1.925</v>
+        <v>1.9251</v>
       </c>
       <c r="I100" t="n">
-        <v>1.625</v>
+        <v>1.62515</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -8482,10 +8482,10 @@
         <v>0.52</v>
       </c>
       <c r="M100" t="n">
-        <v>1.3713</v>
+        <v>1.37129</v>
       </c>
       <c r="N100" t="n">
-        <v>1.5232</v>
+        <v>1.52285</v>
       </c>
       <c r="O100" t="n">
         <v>1843495.64</v>
@@ -9988,16 +9988,16 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0.8885</v>
+        <v>0.88835</v>
       </c>
       <c r="G119" t="n">
-        <v>0.880410714285714</v>
+        <v>0.880392857142857</v>
       </c>
       <c r="H119" t="n">
         <v>1.755</v>
       </c>
       <c r="I119" t="n">
-        <v>1.5828</v>
+        <v>1.58265</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -10005,10 +10005,10 @@
         <v>0.505</v>
       </c>
       <c r="M119" t="n">
-        <v>1.37008</v>
+        <v>1.37028</v>
       </c>
       <c r="N119" t="n">
-        <v>1.50552</v>
+        <v>1.50551</v>
       </c>
       <c r="O119" t="n">
         <v>1843495.64</v>
@@ -10065,16 +10065,16 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0.8885</v>
+        <v>0.88835</v>
       </c>
       <c r="G120" t="n">
-        <v>0.880410714285714</v>
+        <v>0.880392857142857</v>
       </c>
       <c r="H120" t="n">
         <v>1.755</v>
       </c>
       <c r="I120" t="n">
-        <v>1.5828</v>
+        <v>1.58265</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -10082,10 +10082,10 @@
         <v>0.505</v>
       </c>
       <c r="M120" t="n">
-        <v>1.37008</v>
+        <v>1.37028</v>
       </c>
       <c r="N120" t="n">
-        <v>1.50552</v>
+        <v>1.50551</v>
       </c>
       <c r="O120" t="n">
         <v>1843495.64</v>
@@ -10593,12 +10593,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DRP (95th Percentile)</t>
+          <t>MCI</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -10612,27 +10612,27 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0.007</v>
+        <v>99</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0076439108218224</v>
+        <v>101.84</v>
       </c>
       <c r="H127" t="n">
-        <v>0.028</v>
+        <v>114</v>
       </c>
       <c r="I127" t="n">
-        <v>0.0153</v>
+        <v>114</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
-        <v>0.006</v>
+        <v>98.5</v>
       </c>
       <c r="M127" t="n">
-        <v>0.011</v>
+        <v>110.15</v>
       </c>
       <c r="N127" t="n">
-        <v>0.012</v>
+        <v>114</v>
       </c>
       <c r="O127" t="n">
         <v>1843495.64</v>
@@ -10660,11 +10660,7 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="U127" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="U127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -10674,12 +10670,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>DRP (Median)</t>
+          <t>QMCI</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -10693,27 +10689,27 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0.007</v>
+        <v>5</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0076439108218224</v>
+        <v>5.122</v>
       </c>
       <c r="H128" t="n">
-        <v>0.028</v>
+        <v>6.66</v>
       </c>
       <c r="I128" t="n">
-        <v>0.0153</v>
+        <v>6.66</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
-        <v>0.006</v>
+        <v>4.74</v>
       </c>
       <c r="M128" t="n">
-        <v>0.011</v>
+        <v>6.1315</v>
       </c>
       <c r="N128" t="n">
-        <v>0.012</v>
+        <v>6.66</v>
       </c>
       <c r="O128" t="n">
         <v>1843495.64</v>
@@ -10741,2579 +10737,7 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="U128" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>E coli (&gt;260)</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F129" t="n">
-        <v>135</v>
-      </c>
-      <c r="G129" t="n">
-        <v>438.977272727273</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2600</v>
-      </c>
-      <c r="I129" t="n">
-        <v>2530</v>
-      </c>
-      <c r="J129" t="n">
-        <v>20.4545454545455</v>
-      </c>
-      <c r="K129" t="n">
-        <v>29.5454545454545</v>
-      </c>
-      <c r="L129" t="n">
-        <v>176</v>
-      </c>
-      <c r="M129" t="n">
-        <v>950.0599999999999</v>
-      </c>
-      <c r="N129" t="n">
-        <v>2180</v>
-      </c>
-      <c r="O129" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P129" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q129" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R129" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S129" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T129" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U129" t="inlineStr">
-        <is>
-          <t>% exceedances over 260/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>E coli (&gt;540)</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F130" t="n">
-        <v>135</v>
-      </c>
-      <c r="G130" t="n">
-        <v>438.977272727273</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2600</v>
-      </c>
-      <c r="I130" t="n">
-        <v>2530</v>
-      </c>
-      <c r="J130" t="n">
-        <v>20.4545454545455</v>
-      </c>
-      <c r="K130" t="n">
-        <v>29.5454545454545</v>
-      </c>
-      <c r="L130" t="n">
-        <v>176</v>
-      </c>
-      <c r="M130" t="n">
-        <v>950.0599999999999</v>
-      </c>
-      <c r="N130" t="n">
-        <v>2180</v>
-      </c>
-      <c r="O130" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P130" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q130" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R130" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S130" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T130" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U130" t="inlineStr">
-        <is>
-          <t>% exceedances over 540/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>E coli (Median)</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F131" t="n">
-        <v>135</v>
-      </c>
-      <c r="G131" t="n">
-        <v>438.977272727273</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2600</v>
-      </c>
-      <c r="I131" t="n">
-        <v>2530</v>
-      </c>
-      <c r="J131" t="n">
-        <v>20.4545454545455</v>
-      </c>
-      <c r="K131" t="n">
-        <v>29.5454545454545</v>
-      </c>
-      <c r="L131" t="n">
-        <v>176</v>
-      </c>
-      <c r="M131" t="n">
-        <v>950.0599999999999</v>
-      </c>
-      <c r="N131" t="n">
-        <v>2180</v>
-      </c>
-      <c r="O131" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P131" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q131" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R131" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S131" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T131" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U131" t="inlineStr">
-        <is>
-          <t>E. coli/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>E coli (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F132" t="n">
-        <v>135</v>
-      </c>
-      <c r="G132" t="n">
-        <v>438.977272727273</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2600</v>
-      </c>
-      <c r="I132" t="n">
-        <v>2530</v>
-      </c>
-      <c r="J132" t="n">
-        <v>20.4545454545455</v>
-      </c>
-      <c r="K132" t="n">
-        <v>29.5454545454545</v>
-      </c>
-      <c r="L132" t="n">
-        <v>176</v>
-      </c>
-      <c r="M132" t="n">
-        <v>950.0599999999999</v>
-      </c>
-      <c r="N132" t="n">
-        <v>2180</v>
-      </c>
-      <c r="O132" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P132" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q132" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R132" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S132" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T132" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U132" t="inlineStr">
-        <is>
-          <t>E. coli/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>MCI</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F133" t="n">
-        <v>99</v>
-      </c>
-      <c r="G133" t="n">
-        <v>101.84</v>
-      </c>
-      <c r="H133" t="n">
-        <v>114</v>
-      </c>
-      <c r="I133" t="n">
-        <v>114</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="M133" t="n">
-        <v>110.15</v>
-      </c>
-      <c r="N133" t="n">
-        <v>114</v>
-      </c>
-      <c r="O133" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P133" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q133" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R133" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S133" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T133" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Ammoniacal-N (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F134" t="n">
-        <v>0.00272</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0.0046557334137958</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0.0278236164185521</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0.01957</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>0.00281</v>
-      </c>
-      <c r="M134" t="n">
-        <v>0.00592</v>
-      </c>
-      <c r="N134" t="n">
-        <v>0.01251</v>
-      </c>
-      <c r="O134" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P134" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q134" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R134" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S134" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T134" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U134" t="inlineStr">
-        <is>
-          <t>mg NH4-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Ammoniacal-N (Median)</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F135" t="n">
-        <v>0.00272</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0.0046557334137958</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0.0278236164185521</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.01957</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>0.00281</v>
-      </c>
-      <c r="M135" t="n">
-        <v>0.00592</v>
-      </c>
-      <c r="N135" t="n">
-        <v>0.01251</v>
-      </c>
-      <c r="O135" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P135" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q135" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R135" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S135" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T135" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U135" t="inlineStr">
-        <is>
-          <t>mg NH4-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Nitrate-N (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F136" t="n">
-        <v>0.89795</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0.887204545454545</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1.58398</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>0.5620000000000001</v>
-      </c>
-      <c r="M136" t="n">
-        <v>1.33873</v>
-      </c>
-      <c r="N136" t="n">
-        <v>1.4896</v>
-      </c>
-      <c r="O136" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P136" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q136" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R136" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S136" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T136" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U136" t="inlineStr">
-        <is>
-          <t>mg NO3-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Nitrate-N (Median)</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F137" t="n">
-        <v>0.89795</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0.887204545454545</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1.58398</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>0.5620000000000001</v>
-      </c>
-      <c r="M137" t="n">
-        <v>1.33873</v>
-      </c>
-      <c r="N137" t="n">
-        <v>1.4896</v>
-      </c>
-      <c r="O137" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P137" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q137" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R137" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T137" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U137" t="inlineStr">
-        <is>
-          <t>mg NO3-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>QMCI</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F138" t="n">
-        <v>5</v>
-      </c>
-      <c r="G138" t="n">
-        <v>5.122</v>
-      </c>
-      <c r="H138" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="I138" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="M138" t="n">
-        <v>6.1315</v>
-      </c>
-      <c r="N138" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="O138" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P138" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q138" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R138" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S138" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T138" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F139" t="n">
-        <v>0.905</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.901</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1.755</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1.617</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>0.575</v>
-      </c>
-      <c r="M139" t="n">
-        <v>1.37108</v>
-      </c>
-      <c r="N139" t="n">
-        <v>1.5046</v>
-      </c>
-      <c r="O139" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P139" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q139" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R139" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S139" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T139" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U139" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Soluble Inorganic Nitrogen (Median)</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F140" t="n">
-        <v>0.905</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0.901</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1.755</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1.617</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>0.575</v>
-      </c>
-      <c r="M140" t="n">
-        <v>1.37108</v>
-      </c>
-      <c r="N140" t="n">
-        <v>1.5046</v>
-      </c>
-      <c r="O140" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P140" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q140" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R140" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S140" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T140" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U140" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Total Nitrogen (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F141" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="G141" t="n">
-        <v>1.085</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1.7498</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M141" t="n">
-        <v>1.4693</v>
-      </c>
-      <c r="N141" t="n">
-        <v>1.5988</v>
-      </c>
-      <c r="O141" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P141" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q141" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R141" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S141" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T141" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U141" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Total Nitrogen (Median)</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F142" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="G142" t="n">
-        <v>1.085</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1.7498</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M142" t="n">
-        <v>1.4693</v>
-      </c>
-      <c r="N142" t="n">
-        <v>1.5988</v>
-      </c>
-      <c r="O142" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P142" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q142" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R142" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S142" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T142" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U142" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Total Phosphorus (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F143" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0.0232272727272727</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0.08599999999999999</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0.0603</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M143" t="n">
-        <v>0.02906</v>
-      </c>
-      <c r="N143" t="n">
-        <v>0.0459</v>
-      </c>
-      <c r="O143" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P143" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q143" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R143" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S143" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T143" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U143" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Total Phosphorus (Median)</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F144" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0.0232272727272727</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0.08599999999999999</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0.0603</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M144" t="n">
-        <v>0.02906</v>
-      </c>
-      <c r="N144" t="n">
-        <v>0.0459</v>
-      </c>
-      <c r="O144" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P144" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q144" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R144" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S144" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T144" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U144" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Chlorophyll A (92nd Percentile)</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F145" t="n">
-        <v>18.25</v>
-      </c>
-      <c r="G145" t="n">
-        <v>36.7732857142857</v>
-      </c>
-      <c r="H145" t="n">
-        <v>250</v>
-      </c>
-      <c r="I145" t="n">
-        <v>149</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="M145" t="n">
-        <v>65</v>
-      </c>
-      <c r="N145" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="O145" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P145" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q145" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R145" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S145" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T145" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U145" t="inlineStr">
-        <is>
-          <t>mg chl-a /m2</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>DRP (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F146" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0.0073853773800059</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="M146" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="N146" t="n">
-        <v>0.01194</v>
-      </c>
-      <c r="O146" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P146" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q146" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R146" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S146" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T146" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U146" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>DRP (Median)</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F147" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0.0073853773800059</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="M147" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="N147" t="n">
-        <v>0.01194</v>
-      </c>
-      <c r="O147" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P147" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q147" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R147" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S147" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T147" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U147" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>E coli (&gt;260)</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F148" t="n">
-        <v>130</v>
-      </c>
-      <c r="G148" t="n">
-        <v>395.9375</v>
-      </c>
-      <c r="H148" t="n">
-        <v>2600</v>
-      </c>
-      <c r="I148" t="n">
-        <v>2470</v>
-      </c>
-      <c r="J148" t="n">
-        <v>15.625</v>
-      </c>
-      <c r="K148" t="n">
-        <v>25</v>
-      </c>
-      <c r="L148" t="n">
-        <v>190</v>
-      </c>
-      <c r="M148" t="n">
-        <v>455</v>
-      </c>
-      <c r="N148" t="n">
-        <v>2140</v>
-      </c>
-      <c r="O148" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P148" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q148" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R148" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S148" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T148" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U148" t="inlineStr">
-        <is>
-          <t>% exceedances over 260/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>E coli (&gt;540)</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F149" t="n">
-        <v>130</v>
-      </c>
-      <c r="G149" t="n">
-        <v>395.9375</v>
-      </c>
-      <c r="H149" t="n">
-        <v>2600</v>
-      </c>
-      <c r="I149" t="n">
-        <v>2470</v>
-      </c>
-      <c r="J149" t="n">
-        <v>15.625</v>
-      </c>
-      <c r="K149" t="n">
-        <v>25</v>
-      </c>
-      <c r="L149" t="n">
-        <v>190</v>
-      </c>
-      <c r="M149" t="n">
-        <v>455</v>
-      </c>
-      <c r="N149" t="n">
-        <v>2140</v>
-      </c>
-      <c r="O149" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P149" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q149" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R149" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S149" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T149" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U149" t="inlineStr">
-        <is>
-          <t>% exceedances over 540/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>E coli (Median)</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F150" t="n">
-        <v>130</v>
-      </c>
-      <c r="G150" t="n">
-        <v>395.9375</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2600</v>
-      </c>
-      <c r="I150" t="n">
-        <v>2470</v>
-      </c>
-      <c r="J150" t="n">
-        <v>15.625</v>
-      </c>
-      <c r="K150" t="n">
-        <v>25</v>
-      </c>
-      <c r="L150" t="n">
-        <v>190</v>
-      </c>
-      <c r="M150" t="n">
-        <v>455</v>
-      </c>
-      <c r="N150" t="n">
-        <v>2140</v>
-      </c>
-      <c r="O150" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P150" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q150" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R150" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S150" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T150" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U150" t="inlineStr">
-        <is>
-          <t>E. coli/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>E coli (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F151" t="n">
-        <v>130</v>
-      </c>
-      <c r="G151" t="n">
-        <v>395.9375</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2600</v>
-      </c>
-      <c r="I151" t="n">
-        <v>2470</v>
-      </c>
-      <c r="J151" t="n">
-        <v>15.625</v>
-      </c>
-      <c r="K151" t="n">
-        <v>25</v>
-      </c>
-      <c r="L151" t="n">
-        <v>190</v>
-      </c>
-      <c r="M151" t="n">
-        <v>455</v>
-      </c>
-      <c r="N151" t="n">
-        <v>2140</v>
-      </c>
-      <c r="O151" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P151" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q151" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R151" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S151" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T151" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U151" t="inlineStr">
-        <is>
-          <t>E. coli/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Nitrate-N (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F152" t="n">
-        <v>0.823</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0.84840625</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1.562</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>0.523</v>
-      </c>
-      <c r="M152" t="n">
-        <v>1.3224</v>
-      </c>
-      <c r="N152" t="n">
-        <v>1.4888</v>
-      </c>
-      <c r="O152" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P152" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q152" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R152" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S152" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T152" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U152" t="inlineStr">
-        <is>
-          <t>mg NO3-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Nitrate-N (Median)</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F153" t="n">
-        <v>0.823</v>
-      </c>
-      <c r="G153" t="n">
-        <v>0.84840625</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1.562</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>0.523</v>
-      </c>
-      <c r="M153" t="n">
-        <v>1.3224</v>
-      </c>
-      <c r="N153" t="n">
-        <v>1.4888</v>
-      </c>
-      <c r="O153" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P153" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q153" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R153" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S153" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T153" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U153" t="inlineStr">
-        <is>
-          <t>mg NO3-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F154" t="n">
-        <v>0.8325</v>
-      </c>
-      <c r="G154" t="n">
-        <v>0.86046875</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1.755</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1.595</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>0.535</v>
-      </c>
-      <c r="M154" t="n">
-        <v>1.328</v>
-      </c>
-      <c r="N154" t="n">
-        <v>1.5038</v>
-      </c>
-      <c r="O154" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P154" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q154" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R154" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S154" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T154" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U154" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Soluble Inorganic Nitrogen (Median)</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F155" t="n">
-        <v>0.8325</v>
-      </c>
-      <c r="G155" t="n">
-        <v>0.86046875</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1.755</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1.595</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>0.535</v>
-      </c>
-      <c r="M155" t="n">
-        <v>1.328</v>
-      </c>
-      <c r="N155" t="n">
-        <v>1.5038</v>
-      </c>
-      <c r="O155" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P155" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q155" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R155" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S155" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T155" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U155" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Total Nitrogen (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F156" t="n">
-        <v>1.005</v>
-      </c>
-      <c r="G156" t="n">
-        <v>1.049375</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="M156" t="n">
-        <v>1.4342</v>
-      </c>
-      <c r="N156" t="n">
-        <v>1.5964</v>
-      </c>
-      <c r="O156" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P156" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q156" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R156" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S156" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T156" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U156" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Total Nitrogen (Median)</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F157" t="n">
-        <v>1.005</v>
-      </c>
-      <c r="G157" t="n">
-        <v>1.049375</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="M157" t="n">
-        <v>1.4342</v>
-      </c>
-      <c r="N157" t="n">
-        <v>1.5964</v>
-      </c>
-      <c r="O157" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P157" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q157" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R157" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S157" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T157" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U157" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Total Phosphorus (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F158" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="G158" t="n">
-        <v>0.02321875</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0.08599999999999999</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0.0586</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="M158" t="n">
-        <v>0.02918</v>
-      </c>
-      <c r="N158" t="n">
-        <v>0.04528</v>
-      </c>
-      <c r="O158" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P158" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q158" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R158" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S158" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T158" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U158" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Total Phosphorus (Median)</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F159" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="G159" t="n">
-        <v>0.02321875</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0.08599999999999999</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0.0586</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="M159" t="n">
-        <v>0.02918</v>
-      </c>
-      <c r="N159" t="n">
-        <v>0.04528</v>
-      </c>
-      <c r="O159" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P159" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q159" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R159" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S159" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T159" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U159" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s DB Breweries</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Chlorophyll A (92nd Percentile)</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>2017 - 2021</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="F160" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="G160" t="n">
-        <v>43.1347741935484</v>
-      </c>
-      <c r="H160" t="n">
-        <v>250</v>
-      </c>
-      <c r="I160" t="n">
-        <v>195.75</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>30</v>
-      </c>
-      <c r="M160" t="n">
-        <v>68.45</v>
-      </c>
-      <c r="N160" t="n">
-        <v>116.7</v>
-      </c>
-      <c r="O160" t="n">
-        <v>1843495.64</v>
-      </c>
-      <c r="P160" t="n">
-        <v>5521794.445</v>
-      </c>
-      <c r="Q160" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R160" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S160" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="T160" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="U160" t="inlineStr">
-        <is>
-          <t>mg chl-a /m2</t>
-        </is>
-      </c>
+      <c r="U128" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
